--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>1506.042511560475</v>
+        <v>8020.460724977983</v>
       </c>
       <c r="R2">
-        <v>1506.042511560475</v>
+        <v>72184.14652480184</v>
       </c>
       <c r="S2">
-        <v>0.02092866680422084</v>
+        <v>0.07439158192672862</v>
       </c>
       <c r="T2">
-        <v>0.02092866680422084</v>
+        <v>0.07439158192672864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>2772.812343474687</v>
+        <v>13213.02068667786</v>
       </c>
       <c r="R3">
-        <v>2772.812343474687</v>
+        <v>118917.1861801008</v>
       </c>
       <c r="S3">
-        <v>0.03853228922939488</v>
+        <v>0.122553746551169</v>
       </c>
       <c r="T3">
-        <v>0.03853228922939488</v>
+        <v>0.122553746551169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1052.686174230714</v>
+        <v>5300.902181324072</v>
       </c>
       <c r="R4">
-        <v>1052.686174230714</v>
+        <v>47708.11963191664</v>
       </c>
       <c r="S4">
-        <v>0.01462861640409937</v>
+        <v>0.04916706314382292</v>
       </c>
       <c r="T4">
-        <v>0.01462861640409937</v>
+        <v>0.04916706314382293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>2389.204149683732</v>
+        <v>11694.51855068728</v>
       </c>
       <c r="R5">
-        <v>2389.204149683732</v>
+        <v>105250.6669561855</v>
       </c>
       <c r="S5">
-        <v>0.03320149145337373</v>
+        <v>0.1084692968008379</v>
       </c>
       <c r="T5">
-        <v>0.03320149145337373</v>
+        <v>0.108469296800838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>10866.58469332859</v>
+        <v>12172.25302760645</v>
       </c>
       <c r="R6">
-        <v>10866.58469332859</v>
+        <v>109550.277248458</v>
       </c>
       <c r="S6">
-        <v>0.1510071120840258</v>
+        <v>0.112900391808669</v>
       </c>
       <c r="T6">
-        <v>0.1510071120840258</v>
+        <v>0.112900391808669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>20006.7394763343</v>
+        <v>20052.74217681339</v>
       </c>
       <c r="R7">
-        <v>20006.7394763343</v>
+        <v>180474.6795913205</v>
       </c>
       <c r="S7">
-        <v>0.2780229516265145</v>
+        <v>0.1859937058049835</v>
       </c>
       <c r="T7">
-        <v>0.2780229516265145</v>
+        <v>0.1859937058049836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>7595.471827632249</v>
+        <v>8044.914729738882</v>
       </c>
       <c r="R8">
-        <v>7595.471827632249</v>
+        <v>72404.23256764993</v>
       </c>
       <c r="S8">
-        <v>0.1055502071695528</v>
+        <v>0.07461839833553438</v>
       </c>
       <c r="T8">
-        <v>0.1055502071695528</v>
+        <v>0.07461839833553439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>17238.88206534724</v>
+        <v>17748.18725708476</v>
       </c>
       <c r="R9">
-        <v>17238.88206534724</v>
+        <v>159733.6853137628</v>
       </c>
       <c r="S9">
-        <v>0.2395595184422014</v>
+        <v>0.1646184392218898</v>
       </c>
       <c r="T9">
-        <v>0.2395595184422014</v>
+        <v>0.1646184392218898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>20.99178054310908</v>
+        <v>35.86488922586667</v>
       </c>
       <c r="R10">
-        <v>20.99178054310908</v>
+        <v>322.7840030327999</v>
       </c>
       <c r="S10">
-        <v>0.0002917115401734892</v>
+        <v>0.0003326549354989119</v>
       </c>
       <c r="T10">
-        <v>0.0002917115401734892</v>
+        <v>0.0003326549354989119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>38.64848950454569</v>
+        <v>59.08432688797777</v>
       </c>
       <c r="R11">
-        <v>38.64848950454569</v>
+        <v>531.7589419917999</v>
       </c>
       <c r="S11">
-        <v>0.0005370773753849533</v>
+        <v>0.0005480204560548708</v>
       </c>
       <c r="T11">
-        <v>0.0005370773753849533</v>
+        <v>0.0005480204560548709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>14.67273133433651</v>
+        <v>23.70390879644445</v>
       </c>
       <c r="R12">
-        <v>14.67273133433651</v>
+        <v>213.335179168</v>
       </c>
       <c r="S12">
-        <v>0.0002038990950434726</v>
+        <v>0.0002198590995804972</v>
       </c>
       <c r="T12">
-        <v>0.0002038990950434726</v>
+        <v>0.0002198590995804972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>33.30161585603592</v>
+        <v>52.29407969844444</v>
       </c>
       <c r="R13">
-        <v>33.30161585603592</v>
+        <v>470.646717286</v>
       </c>
       <c r="S13">
-        <v>0.0004627747337430633</v>
+        <v>0.0004850393820961433</v>
       </c>
       <c r="T13">
-        <v>0.0004627747337430633</v>
+        <v>0.0004850393820961434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H14">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>1643.360954381451</v>
+        <v>2390.921989085003</v>
       </c>
       <c r="R14">
-        <v>1643.360954381451</v>
+        <v>21518.29790176502</v>
       </c>
       <c r="S14">
-        <v>0.02283690771628972</v>
+        <v>0.02217634062810303</v>
       </c>
       <c r="T14">
-        <v>0.02283690771628972</v>
+        <v>0.02217634062810304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H15">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>3025.632745500528</v>
+        <v>3938.838775636527</v>
       </c>
       <c r="R15">
-        <v>3025.632745500528</v>
+        <v>35449.54898072874</v>
       </c>
       <c r="S15">
-        <v>0.04204559905610458</v>
+        <v>0.03653361789571566</v>
       </c>
       <c r="T15">
-        <v>0.04204559905610458</v>
+        <v>0.03653361789571567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H16">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>1148.668342804929</v>
+        <v>1580.213908141938</v>
       </c>
       <c r="R16">
-        <v>1148.668342804929</v>
+        <v>14221.92517327744</v>
       </c>
       <c r="S16">
-        <v>0.01596242923462494</v>
+        <v>0.01465684035372167</v>
       </c>
       <c r="T16">
-        <v>0.01596242923462494</v>
+        <v>0.01465684035372167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H17">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>2607.047796790377</v>
+        <v>3486.169001180097</v>
       </c>
       <c r="R17">
-        <v>2607.047796790377</v>
+        <v>31375.52101062088</v>
       </c>
       <c r="S17">
-        <v>0.03622874803525287</v>
+        <v>0.03233500365559398</v>
       </c>
       <c r="T17">
-        <v>0.03622874803525287</v>
+        <v>0.03233500365559398</v>
       </c>
     </row>
   </sheetData>
